--- a/runs/run152/NotionalETEOutput152.xlsx
+++ b/runs/run152/NotionalETEOutput152.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_SOMERSAULT2_State_Update</t>
+    <t>Missile_HELLMASKER0_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_SOMERSAULT2_218.MISSILE_SOMERSAULT2_218</t>
+    <t>MISSILE_HELLMASKER0_229.MISSILE_HELLMASKER0_229</t>
   </si>
   <si>
-    <t>MISSILE_SOMERSAULT2</t>
+    <t>MISSILE_HELLMASKER0</t>
   </si>
 </sst>
 </file>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1520.689432361806</v>
+        <v>-1572.083003092073</v>
       </c>
       <c r="J2">
-        <v>1919.476288047982</v>
+        <v>2040.385810156236</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1488.553828477052</v>
+        <v>-1496.724894287231</v>
       </c>
       <c r="J3">
-        <v>1853.901410539693</v>
+        <v>2012.63727642426</v>
       </c>
       <c r="K3">
-        <v>301.6543274471138</v>
+        <v>297.4201859230594</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1384.443469272704</v>
+        <v>-1482.362745962804</v>
       </c>
       <c r="J4">
-        <v>1964.710747829029</v>
+        <v>1924.027332392281</v>
       </c>
       <c r="K4">
-        <v>573.9651397412761</v>
+        <v>594.5750074326223</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1358.747729220725</v>
+        <v>-1380.155894024054</v>
       </c>
       <c r="J5">
-        <v>1829.499138510849</v>
+        <v>1909.788416785315</v>
       </c>
       <c r="K5">
-        <v>867.1968014317247</v>
+        <v>855.9430454914492</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1440.125141738764</v>
+        <v>-1442.900574220677</v>
       </c>
       <c r="J6">
-        <v>1853.524165866952</v>
+        <v>1803.182968337012</v>
       </c>
       <c r="K6">
-        <v>1141.647807085017</v>
+        <v>1077.059029904595</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1386.287164269201</v>
+        <v>-1371.714433330988</v>
       </c>
       <c r="J7">
-        <v>1685.422428999807</v>
+        <v>1780.440587241934</v>
       </c>
       <c r="K7">
-        <v>1369.740426924986</v>
+        <v>1428.196991017189</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1364.020305460612</v>
+        <v>-1289.994490392579</v>
       </c>
       <c r="J8">
-        <v>1792.84802903229</v>
+        <v>1721.469064302967</v>
       </c>
       <c r="K8">
-        <v>1636.902354811076</v>
+        <v>1538.023633361116</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-99.34236978020826</v>
+        <v>-96.67760661896901</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1329.88439977358</v>
+        <v>-1235.929914242104</v>
       </c>
       <c r="J9">
-        <v>1612.321446340694</v>
+        <v>1630.161217330718</v>
       </c>
       <c r="K9">
-        <v>1866.489837301394</v>
+        <v>1734.325020449173</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>227.7487425111746</v>
+        <v>215.4420676997474</v>
       </c>
       <c r="G10">
-        <v>-84.81289121424622</v>
+        <v>-83.03409678423753</v>
       </c>
       <c r="H10">
-        <v>856.3717632225656</v>
+        <v>884.1482334488031</v>
       </c>
       <c r="I10">
-        <v>-1210.563018932104</v>
+        <v>-1250.936133171152</v>
       </c>
       <c r="J10">
-        <v>1604.783675054869</v>
+        <v>1620.341113500047</v>
       </c>
       <c r="K10">
-        <v>2094.022004432996</v>
+        <v>1969.042667848973</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>170.3206505570686</v>
+        <v>161.6898576743721</v>
       </c>
       <c r="G11">
-        <v>-66.8960232481396</v>
+        <v>-69.30343649171705</v>
       </c>
       <c r="H11">
-        <v>1110.280022697288</v>
+        <v>1018.025808366244</v>
       </c>
       <c r="I11">
-        <v>-1173.972469636849</v>
+        <v>-1246.391657251083</v>
       </c>
       <c r="J11">
-        <v>1632.72435405024</v>
+        <v>1529.357825024494</v>
       </c>
       <c r="K11">
-        <v>2285.126159667565</v>
+        <v>2147.387857443328</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>141.1040380324326</v>
+        <v>134.9052396796119</v>
       </c>
       <c r="G12">
-        <v>-51.90905772875617</v>
+        <v>-49.8281251784251</v>
       </c>
       <c r="H12">
-        <v>1124.647396853362</v>
+        <v>1229.970203712108</v>
       </c>
       <c r="I12">
-        <v>-1163.065887808237</v>
+        <v>-1117.807799495338</v>
       </c>
       <c r="J12">
-        <v>1568.268131397107</v>
+        <v>1540.589712039391</v>
       </c>
       <c r="K12">
-        <v>2472.812088444143</v>
+        <v>2275.162814351942</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>124.5190160346987</v>
+        <v>125.4572124200261</v>
       </c>
       <c r="G13">
-        <v>-32.27191122324294</v>
+        <v>-35.25289103033499</v>
       </c>
       <c r="H13">
-        <v>1277.455822303107</v>
+        <v>1250.055733358286</v>
       </c>
       <c r="I13">
-        <v>-1177.783174442128</v>
+        <v>-1076.98317455048</v>
       </c>
       <c r="J13">
-        <v>1510.109932461501</v>
+        <v>1533.908829685912</v>
       </c>
       <c r="K13">
-        <v>2584.385510810196</v>
+        <v>2471.65061450527</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>112.1152943224004</v>
+        <v>107.129232791059</v>
       </c>
       <c r="G14">
-        <v>-17.2281982901026</v>
+        <v>-18.23769468080752</v>
       </c>
       <c r="H14">
-        <v>1316.160181480736</v>
+        <v>1283.985715134782</v>
       </c>
       <c r="I14">
-        <v>-1106.6117261616</v>
+        <v>-1062.129971374331</v>
       </c>
       <c r="J14">
-        <v>1424.693627945876</v>
+        <v>1418.74081451378</v>
       </c>
       <c r="K14">
-        <v>2544.826503737816</v>
+        <v>2724.306342384961</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>104.1537597666059</v>
+        <v>95.45118483795851</v>
       </c>
       <c r="G15">
-        <v>-0.9019559390723313</v>
+        <v>-0.9574138792831355</v>
       </c>
       <c r="H15">
-        <v>1353.138951129691</v>
+        <v>1313.352158052777</v>
       </c>
       <c r="I15">
-        <v>-1016.147918002756</v>
+        <v>-1046.278075581834</v>
       </c>
       <c r="J15">
-        <v>1302.085952396661</v>
+        <v>1309.251229255224</v>
       </c>
       <c r="K15">
-        <v>2831.72382505489</v>
+        <v>2883.361176957264</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>94.13748502670869</v>
+        <v>88.34040101345613</v>
       </c>
       <c r="G16">
-        <v>15.22764094187492</v>
+        <v>15.7844832521836</v>
       </c>
       <c r="H16">
-        <v>1482.703732887007</v>
+        <v>1402.531886748375</v>
       </c>
       <c r="I16">
-        <v>-1047.998076502193</v>
+        <v>-1051.841993820319</v>
       </c>
       <c r="J16">
-        <v>1258.851559478156</v>
+        <v>1341.952016933074</v>
       </c>
       <c r="K16">
-        <v>2805.175660650361</v>
+        <v>2977.118452080175</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>90.08885638448091</v>
+        <v>84.23426686923681</v>
       </c>
       <c r="G17">
-        <v>31.17874616649408</v>
+        <v>32.56261554568441</v>
       </c>
       <c r="H17">
-        <v>1395.812036555213</v>
+        <v>1396.707824598235</v>
       </c>
       <c r="I17">
-        <v>-964.1645626869132</v>
+        <v>-991.301967890594</v>
       </c>
       <c r="J17">
-        <v>1228.413614322876</v>
+        <v>1320.501969666107</v>
       </c>
       <c r="K17">
-        <v>2986.790637358986</v>
+        <v>2963.761152222085</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>81.8294315072533</v>
+        <v>81.06836611579293</v>
       </c>
       <c r="G18">
-        <v>47.1571441066036</v>
+        <v>49.60859310322723</v>
       </c>
       <c r="H18">
-        <v>1484.636915451331</v>
+        <v>1453.846353275867</v>
       </c>
       <c r="I18">
-        <v>-964.8210087335999</v>
+        <v>-953.3770643593617</v>
       </c>
       <c r="J18">
-        <v>1212.053382840673</v>
+        <v>1209.788386902232</v>
       </c>
       <c r="K18">
-        <v>3085.874928597975</v>
+        <v>2906.893806046499</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>75.36411825819948</v>
+        <v>81.09105699570107</v>
       </c>
       <c r="G19">
-        <v>61.9523527674118</v>
+        <v>67.50511822660857</v>
       </c>
       <c r="H19">
-        <v>1558.21718039937</v>
+        <v>1577.527119646115</v>
       </c>
       <c r="I19">
-        <v>-919.0776034152316</v>
+        <v>-916.1870102391322</v>
       </c>
       <c r="J19">
-        <v>1153.77636856842</v>
+        <v>1145.617920717283</v>
       </c>
       <c r="K19">
-        <v>3113.793415740204</v>
+        <v>3166.305815491631</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>70.97829509704786</v>
+        <v>74.57252165656256</v>
       </c>
       <c r="G20">
-        <v>84.41091432696976</v>
+        <v>85.48380732185029</v>
       </c>
       <c r="H20">
-        <v>1598.045261099515</v>
+        <v>1620.127860592915</v>
       </c>
       <c r="I20">
-        <v>-879.1338700826656</v>
+        <v>-849.2723158501846</v>
       </c>
       <c r="J20">
-        <v>1162.442012538645</v>
+        <v>1144.810545954762</v>
       </c>
       <c r="K20">
-        <v>3098.968241639936</v>
+        <v>3109.708832282517</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>74.02912593449746</v>
+        <v>72.19291198825007</v>
       </c>
       <c r="G21">
-        <v>95.81547812156533</v>
+        <v>97.09660200522954</v>
       </c>
       <c r="H21">
-        <v>1648.045931931411</v>
+        <v>1536.48082203509</v>
       </c>
       <c r="I21">
-        <v>-763.3638785104534</v>
+        <v>-774.055179753113</v>
       </c>
       <c r="J21">
-        <v>1032.327785891719</v>
+        <v>1091.774308180341</v>
       </c>
       <c r="K21">
-        <v>3282.968145008063</v>
+        <v>3283.926200195358</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>66.15336328837158</v>
+        <v>69.93744860438842</v>
       </c>
       <c r="G22">
-        <v>120.3347608585962</v>
+        <v>110.1491038872774</v>
       </c>
       <c r="H22">
-        <v>1596.924563307005</v>
+        <v>1554.801068630015</v>
       </c>
       <c r="I22">
-        <v>-723.2433525564238</v>
+        <v>-751.6286763821688</v>
       </c>
       <c r="J22">
-        <v>997.1995094439192</v>
+        <v>1077.493457952614</v>
       </c>
       <c r="K22">
-        <v>3327.459142123379</v>
+        <v>3302.129766339765</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>67.98341007823136</v>
+        <v>65.3398508855696</v>
       </c>
       <c r="G23">
-        <v>135.4192808267761</v>
+        <v>126.8860152768266</v>
       </c>
       <c r="H23">
-        <v>1592.284544168415</v>
+        <v>1640.896235404887</v>
       </c>
       <c r="I23">
-        <v>-670.8130875572891</v>
+        <v>-727.3492803880807</v>
       </c>
       <c r="J23">
-        <v>965.8237129053426</v>
+        <v>968.1083214190768</v>
       </c>
       <c r="K23">
-        <v>3278.454874330314</v>
+        <v>3315.956209977121</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>64.26081472785626</v>
+        <v>64.94808230078327</v>
       </c>
       <c r="G24">
-        <v>152.6086673096819</v>
+        <v>140.4789966234868</v>
       </c>
       <c r="H24">
-        <v>1705.151926723165</v>
+        <v>1635.655122175587</v>
       </c>
       <c r="I24">
-        <v>-657.7357417997991</v>
+        <v>-679.8367297781946</v>
       </c>
       <c r="J24">
-        <v>921.3155536943973</v>
+        <v>886.6277910296689</v>
       </c>
       <c r="K24">
-        <v>3293.38534579415</v>
+        <v>3132.058746575783</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>63.09801845921816</v>
+        <v>62.11340540892173</v>
       </c>
       <c r="G25">
-        <v>164.8065097250405</v>
+        <v>169.4291654834452</v>
       </c>
       <c r="H25">
-        <v>1623.941486979358</v>
+        <v>1671.215263831784</v>
       </c>
       <c r="I25">
-        <v>-571.6506497639973</v>
+        <v>-572.5193120795182</v>
       </c>
       <c r="J25">
-        <v>916.1376483251133</v>
+        <v>911.2949907912512</v>
       </c>
       <c r="K25">
-        <v>3032.143123862721</v>
+        <v>3245.503213675156</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>59.42726348999712</v>
+        <v>59.41182295662774</v>
       </c>
       <c r="G26">
-        <v>173.6591588312569</v>
+        <v>171.7233578760449</v>
       </c>
       <c r="H26">
-        <v>1683.064293444004</v>
+        <v>1652.03505160308</v>
       </c>
       <c r="I26">
-        <v>-519.6870075285001</v>
+        <v>-524.8032975496486</v>
       </c>
       <c r="J26">
-        <v>809.0707543722505</v>
+        <v>819.0695801703117</v>
       </c>
       <c r="K26">
-        <v>3009.868107855435</v>
+        <v>3032.449876021157</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>59.97334545498439</v>
+        <v>57.88988223286375</v>
       </c>
       <c r="G27">
-        <v>205.4515832501282</v>
+        <v>189.2426502501875</v>
       </c>
       <c r="H27">
-        <v>1723.631251568473</v>
+        <v>1645.922433666268</v>
       </c>
       <c r="I27">
-        <v>-506.0218761440022</v>
+        <v>-488.2371176459405</v>
       </c>
       <c r="J27">
-        <v>822.5177350256089</v>
+        <v>780.1261743353336</v>
       </c>
       <c r="K27">
-        <v>3058.028230674441</v>
+        <v>3158.673710974516</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>58.59141894694883</v>
+        <v>56.34130199862332</v>
       </c>
       <c r="G28">
-        <v>222.6747314090185</v>
+        <v>215.0522191881597</v>
       </c>
       <c r="H28">
-        <v>1731.925135440949</v>
+        <v>1701.594859777808</v>
       </c>
       <c r="I28">
-        <v>-442.0005386171001</v>
+        <v>-457.043736411577</v>
       </c>
       <c r="J28">
-        <v>713.6335270652728</v>
+        <v>759.0267231859976</v>
       </c>
       <c r="K28">
-        <v>3093.602262208834</v>
+        <v>2904.168495328141</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>55.64019455912448</v>
+        <v>56.33083644246819</v>
       </c>
       <c r="G29">
-        <v>231.2363193268399</v>
+        <v>235.8629819027228</v>
       </c>
       <c r="H29">
-        <v>1725.658192734548</v>
+        <v>1689.615206144987</v>
       </c>
       <c r="I29">
-        <v>-399.9583521126572</v>
+        <v>-373.9186024573864</v>
       </c>
       <c r="J29">
-        <v>660.5318024282218</v>
+        <v>715.1158979553468</v>
       </c>
       <c r="K29">
-        <v>2831.839494871669</v>
+        <v>2864.460187553253</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>54.11322067672629</v>
+        <v>52.22646324095698</v>
       </c>
       <c r="G30">
-        <v>253.0946233274067</v>
+        <v>251.0247378134424</v>
       </c>
       <c r="H30">
-        <v>1834.071308544947</v>
+        <v>1696.401395913633</v>
       </c>
       <c r="I30">
-        <v>-339.299789932434</v>
+        <v>-332.2368029683844</v>
       </c>
       <c r="J30">
-        <v>649.3564010294298</v>
+        <v>661.0519867975902</v>
       </c>
       <c r="K30">
-        <v>2709.252206995915</v>
+        <v>2869.226084188546</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>51.24305114798543</v>
+        <v>50.22620241589257</v>
       </c>
       <c r="G31">
-        <v>250.418628436463</v>
+        <v>258.388108330193</v>
       </c>
       <c r="H31">
-        <v>1843.373977945378</v>
+        <v>1833.196675743167</v>
       </c>
       <c r="I31">
-        <v>-271.2919020768824</v>
+        <v>-273.3207259264216</v>
       </c>
       <c r="J31">
-        <v>593.4454669790613</v>
+        <v>581.662648850281</v>
       </c>
       <c r="K31">
-        <v>2781.28467240807</v>
+        <v>2549.164217075743</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>50.55575457912804</v>
+        <v>50.60520138636278</v>
       </c>
       <c r="G32">
-        <v>282.8077488087852</v>
+        <v>279.0957486987867</v>
       </c>
       <c r="H32">
-        <v>1789.806833313493</v>
+        <v>1752.187137995354</v>
       </c>
       <c r="I32">
-        <v>-201.3212121675624</v>
+        <v>-211.1100543978208</v>
       </c>
       <c r="J32">
-        <v>564.2495423296926</v>
+        <v>519.5885235076247</v>
       </c>
       <c r="K32">
-        <v>2547.859877399876</v>
+        <v>2628.749739788087</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>52.41026047139226</v>
+        <v>48.11548299851794</v>
       </c>
       <c r="G33">
-        <v>299.9153094561584</v>
+        <v>289.6967366490076</v>
       </c>
       <c r="H33">
-        <v>1716.793265391297</v>
+        <v>1815.339252657288</v>
       </c>
       <c r="I33">
-        <v>-141.6025333356784</v>
+        <v>-142.1436378342494</v>
       </c>
       <c r="J33">
-        <v>482.0450703034199</v>
+        <v>512.3074889190669</v>
       </c>
       <c r="K33">
-        <v>2300.710102301738</v>
+        <v>2255.254100831198</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>50.7974170439133</v>
+        <v>50.06255444859718</v>
       </c>
       <c r="G34">
-        <v>308.3690887354126</v>
+        <v>302.3642740631585</v>
       </c>
       <c r="H34">
-        <v>1764.775808172883</v>
+        <v>1872.11299838751</v>
       </c>
       <c r="I34">
-        <v>-82.96979837261175</v>
+        <v>-84.891288243578</v>
       </c>
       <c r="J34">
-        <v>454.4358211401531</v>
+        <v>433.8081092547146</v>
       </c>
       <c r="K34">
-        <v>2180.072643798643</v>
+        <v>2189.561476021664</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>46.80471275448436</v>
+        <v>49.261719619075</v>
       </c>
       <c r="G35">
-        <v>319.7487890959939</v>
+        <v>338.6728670025439</v>
       </c>
       <c r="H35">
-        <v>1821.826143842039</v>
+        <v>1888.927762754899</v>
       </c>
       <c r="I35">
-        <v>-18.42270152146864</v>
+        <v>-17.88768047392544</v>
       </c>
       <c r="J35">
-        <v>388.2788451948847</v>
+        <v>401.4379066870745</v>
       </c>
       <c r="K35">
-        <v>1929.946641642451</v>
+        <v>1942.580850022591</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>47.99048165186714</v>
+        <v>47.11169203142741</v>
       </c>
       <c r="G36">
-        <v>341.3831344106423</v>
+        <v>356.2358421158817</v>
       </c>
       <c r="H36">
-        <v>1819.459119564327</v>
+        <v>1835.792117775001</v>
       </c>
       <c r="I36">
-        <v>45.04274167299044</v>
+        <v>48.20833758858321</v>
       </c>
       <c r="J36">
-        <v>337.5405896114782</v>
+        <v>361.6713739603468</v>
       </c>
       <c r="K36">
-        <v>1812.203704620343</v>
+        <v>1808.909978995071</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>44.75809925251396</v>
+        <v>47.69445877284161</v>
       </c>
       <c r="G37">
-        <v>345.6281429228722</v>
+        <v>347.4847738965167</v>
       </c>
       <c r="H37">
-        <v>1773.443119908012</v>
+        <v>1847.522094453472</v>
       </c>
       <c r="I37">
-        <v>118.3919691007496</v>
+        <v>116.5668599084916</v>
       </c>
       <c r="J37">
-        <v>306.293534286143</v>
+        <v>290.9025348139059</v>
       </c>
       <c r="K37">
-        <v>1664.353843452956</v>
+        <v>1598.401670592915</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>46.96448621559913</v>
+        <v>43.99106084268831</v>
       </c>
       <c r="G38">
-        <v>392.7885814695249</v>
+        <v>396.4986716688643</v>
       </c>
       <c r="H38">
-        <v>1784.930761361512</v>
+        <v>1907.701919677162</v>
       </c>
       <c r="I38">
-        <v>179.3687345222882</v>
+        <v>178.3140786740077</v>
       </c>
       <c r="J38">
-        <v>252.4585358520629</v>
+        <v>251.6832757481838</v>
       </c>
       <c r="K38">
-        <v>1434.839031842896</v>
+        <v>1415.372812734187</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>44.15360127276202</v>
+        <v>43.61295986036269</v>
       </c>
       <c r="G39">
-        <v>410.2218441998069</v>
+        <v>388.3924049512667</v>
       </c>
       <c r="H39">
-        <v>1926.554692366872</v>
+        <v>1863.866372911274</v>
       </c>
       <c r="I39">
-        <v>263.986661041505</v>
+        <v>248.0160754227924</v>
       </c>
       <c r="J39">
-        <v>198.5520700937594</v>
+        <v>202.4327676573782</v>
       </c>
       <c r="K39">
-        <v>1196.058494525578</v>
+        <v>1199.982907943241</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>46.19653919205181</v>
+        <v>45.59514429839712</v>
       </c>
       <c r="G40">
-        <v>423.3902555542012</v>
+        <v>423.1241700502249</v>
       </c>
       <c r="H40">
-        <v>1786.851484412079</v>
+        <v>1906.905962708107</v>
       </c>
       <c r="I40">
-        <v>336.7019001861837</v>
+        <v>340.9090032850419</v>
       </c>
       <c r="J40">
-        <v>156.7018190853744</v>
+        <v>146.7938906583515</v>
       </c>
       <c r="K40">
-        <v>927.4590078661533</v>
+        <v>919.758586000337</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>44.89633451838738</v>
+        <v>44.03633269632806</v>
       </c>
       <c r="G41">
-        <v>417.2566704339102</v>
+        <v>421.3364900805555</v>
       </c>
       <c r="H41">
-        <v>1965.450678428973</v>
+        <v>1853.91259440466</v>
       </c>
       <c r="I41">
-        <v>421.9545074516058</v>
+        <v>384.2385589272542</v>
       </c>
       <c r="J41">
-        <v>106.858370293351</v>
+        <v>99.27637445485249</v>
       </c>
       <c r="K41">
-        <v>649.0822768271489</v>
+        <v>595.9450381412839</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>43.14050098467456</v>
+        <v>41.3955315708134</v>
       </c>
       <c r="G42">
-        <v>445.8106199317443</v>
+        <v>436.9090336521162</v>
       </c>
       <c r="H42">
-        <v>1923.067300818362</v>
+        <v>1847.516903999365</v>
       </c>
       <c r="I42">
-        <v>499.6439352475974</v>
+        <v>471.6513178937373</v>
       </c>
       <c r="J42">
-        <v>53.41857717996436</v>
+        <v>56.36836158903812</v>
       </c>
       <c r="K42">
-        <v>321.4237061150063</v>
+        <v>350.5570582881152</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>40.56238938735523</v>
+        <v>43.68002939036938</v>
       </c>
       <c r="G43">
-        <v>482.1709952713579</v>
+        <v>484.4059974975313</v>
       </c>
       <c r="H43">
-        <v>1828.00946845358</v>
+        <v>1988.466088307191</v>
       </c>
       <c r="I43">
-        <v>572.3041219010031</v>
+        <v>543.9095431517857</v>
       </c>
       <c r="J43">
-        <v>5.530006959391232</v>
+        <v>5.137551364959784</v>
       </c>
       <c r="K43">
-        <v>32.37424103864906</v>
+        <v>32.47306423052804</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>40.44602313600495</v>
+        <v>40.92562614152323</v>
       </c>
       <c r="G44">
-        <v>471.614530147438</v>
+        <v>479.2274821814688</v>
       </c>
       <c r="H44">
-        <v>1841.114100838839</v>
+        <v>1847.799091973428</v>
       </c>
       <c r="I44">
-        <v>617.0571496969962</v>
+        <v>645.6171398761871</v>
       </c>
       <c r="J44">
-        <v>-42.81734517331309</v>
+        <v>-42.30861825288966</v>
       </c>
       <c r="K44">
-        <v>-273.8805697446061</v>
+        <v>-280.4575431455003</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>41.38278300782648</v>
+        <v>41.72205173986563</v>
       </c>
       <c r="G45">
-        <v>479.402272780888</v>
+        <v>496.5728996794298</v>
       </c>
       <c r="H45">
-        <v>1951.451825018792</v>
+        <v>1965.109938580573</v>
       </c>
       <c r="I45">
-        <v>703.598099283291</v>
+        <v>731.5408487460528</v>
       </c>
       <c r="J45">
-        <v>-95.99984017618893</v>
+        <v>-88.62625808907907</v>
       </c>
       <c r="K45">
-        <v>-645.6224089782007</v>
+        <v>-596.0394552167912</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>39.4618626396401</v>
+        <v>38.94866473785025</v>
       </c>
       <c r="G46">
-        <v>528.4974101608819</v>
+        <v>502.8904209811458</v>
       </c>
       <c r="H46">
-        <v>1999.316054873108</v>
+        <v>1848.139039762664</v>
       </c>
       <c r="I46">
-        <v>781.3122323918993</v>
+        <v>793.7584486856656</v>
       </c>
       <c r="J46">
-        <v>-134.2015548641862</v>
+        <v>-134.5795277493641</v>
       </c>
       <c r="K46">
-        <v>-976.0411952070485</v>
+        <v>-953.0289152565388</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>40.82696852154925</v>
+        <v>38.16018357914008</v>
       </c>
       <c r="G47">
-        <v>506.1639303433029</v>
+        <v>548.2934120185768</v>
       </c>
       <c r="H47">
-        <v>1923.30459234354</v>
+        <v>1855.672194014699</v>
       </c>
       <c r="I47">
-        <v>912.5343223458652</v>
+        <v>917.9158894455503</v>
       </c>
       <c r="J47">
-        <v>-195.0296828515574</v>
+        <v>-185.9081924183268</v>
       </c>
       <c r="K47">
-        <v>-1306.610309376951</v>
+        <v>-1284.734272451032</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>37.87714429245109</v>
+        <v>41.2300921985757</v>
       </c>
       <c r="G48">
-        <v>536.5829045962803</v>
+        <v>552.2613041068286</v>
       </c>
       <c r="H48">
-        <v>1985.561575539153</v>
+        <v>1875.861450233909</v>
       </c>
       <c r="I48">
-        <v>957.3170829454513</v>
+        <v>1002.735310464501</v>
       </c>
       <c r="J48">
-        <v>-237.4779844044118</v>
+        <v>-231.4294602827717</v>
       </c>
       <c r="K48">
-        <v>-1624.210581193993</v>
+        <v>-1720.953346864117</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>37.17168439506459</v>
+        <v>38.68606914939907</v>
       </c>
       <c r="G49">
-        <v>536.4698598026996</v>
+        <v>535.7871707333281</v>
       </c>
       <c r="H49">
-        <v>2013.012614030367</v>
+        <v>1891.104116282461</v>
       </c>
       <c r="I49">
-        <v>1056.108173105454</v>
+        <v>1077.581561966675</v>
       </c>
       <c r="J49">
-        <v>-283.1661866061073</v>
+        <v>-282.2808853863352</v>
       </c>
       <c r="K49">
-        <v>-2057.430897231453</v>
+        <v>-2087.193667016413</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>39.28260626007945</v>
+        <v>38.13850067734133</v>
       </c>
       <c r="G50">
-        <v>594.4811477428211</v>
+        <v>561.0816065133909</v>
       </c>
       <c r="H50">
-        <v>1990.481363404772</v>
+        <v>2008.01650646875</v>
       </c>
       <c r="I50">
-        <v>1108.72696818841</v>
+        <v>1168.214453351631</v>
       </c>
       <c r="J50">
-        <v>-331.2132791843803</v>
+        <v>-321.3426867983879</v>
       </c>
       <c r="K50">
-        <v>-2426.874909703367</v>
+        <v>-2579.292397362622</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>37.21964602362353</v>
+        <v>39.83759203101067</v>
       </c>
       <c r="G51">
-        <v>593.3981022223597</v>
+        <v>606.7771863356378</v>
       </c>
       <c r="H51">
-        <v>1894.278163758639</v>
+        <v>1982.630519015418</v>
       </c>
       <c r="I51">
-        <v>1304.12346967778</v>
+        <v>1314.261399121538</v>
       </c>
       <c r="J51">
-        <v>-381.0821639027706</v>
+        <v>-377.6887951149676</v>
       </c>
       <c r="K51">
-        <v>-2818.384237098559</v>
+        <v>-3060.121940201998</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>36.79258882768688</v>
+        <v>36.00673362177857</v>
       </c>
       <c r="G52">
-        <v>616.8358069407905</v>
+        <v>602.8627625380303</v>
       </c>
       <c r="H52">
-        <v>1966.482634041927</v>
+        <v>1903.439412637289</v>
       </c>
       <c r="I52">
-        <v>1414.577711647068</v>
+        <v>1356.723294562025</v>
       </c>
       <c r="J52">
-        <v>-428.3141547172383</v>
+        <v>-444.9439204496375</v>
       </c>
       <c r="K52">
-        <v>-3519.133534728338</v>
+        <v>-3268.976226070459</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>35.79110812224192</v>
+        <v>37.76702974785805</v>
       </c>
       <c r="G53">
-        <v>616.3750207373516</v>
+        <v>616.724470829355</v>
       </c>
       <c r="H53">
-        <v>2072.760841467423</v>
+        <v>2000.291887016614</v>
       </c>
       <c r="I53">
-        <v>1448.180886031199</v>
+        <v>1500.967480651873</v>
       </c>
       <c r="J53">
-        <v>-460.5182391234634</v>
+        <v>-490.8754312128511</v>
       </c>
       <c r="K53">
-        <v>-3928.918539899255</v>
+        <v>-3769.876861196642</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>36.12665023666861</v>
+        <v>34.9237001475673</v>
       </c>
       <c r="G54">
-        <v>652.9786422471517</v>
+        <v>644.4869594860535</v>
       </c>
       <c r="H54">
-        <v>1894.702398762977</v>
+        <v>1898.749224169077</v>
       </c>
       <c r="I54">
-        <v>1556.449047334526</v>
+        <v>1601.721221003872</v>
       </c>
       <c r="J54">
-        <v>-537.8786341445385</v>
+        <v>-533.8414155896031</v>
       </c>
       <c r="K54">
-        <v>-4130.725336234629</v>
+        <v>-4459.864486918479</v>
       </c>
     </row>
   </sheetData>
